--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tfrc</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.11290255162127</v>
+        <v>0.7161673333333334</v>
       </c>
       <c r="H2">
-        <v>4.11290255162127</v>
+        <v>2.148502</v>
       </c>
       <c r="I2">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="J2">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.29983895179291</v>
+        <v>3.730463333333333</v>
       </c>
       <c r="N2">
-        <v>3.29983895179291</v>
+        <v>11.19139</v>
       </c>
       <c r="O2">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="P2">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="Q2">
-        <v>13.57191604476832</v>
+        <v>2.671635977531111</v>
       </c>
       <c r="R2">
-        <v>13.57191604476832</v>
+        <v>24.04472379778</v>
       </c>
       <c r="S2">
-        <v>0.0006997565623857797</v>
+        <v>0.0001257648937839341</v>
       </c>
       <c r="T2">
-        <v>0.0006997565623857797</v>
+        <v>0.0001257648937839341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.11290255162127</v>
+        <v>0.7161673333333334</v>
       </c>
       <c r="H3">
-        <v>4.11290255162127</v>
+        <v>2.148502</v>
       </c>
       <c r="I3">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="J3">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.518009312639601</v>
+        <v>9.692885333333335</v>
       </c>
       <c r="N3">
-        <v>9.518009312639601</v>
+        <v>29.078656</v>
       </c>
       <c r="O3">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="P3">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="Q3">
-        <v>39.14664478831042</v>
+        <v>6.941727841479112</v>
       </c>
       <c r="R3">
-        <v>39.14664478831042</v>
+        <v>62.47555057331201</v>
       </c>
       <c r="S3">
-        <v>0.002018368039976549</v>
+        <v>0.000326775680520432</v>
       </c>
       <c r="T3">
-        <v>0.002018368039976549</v>
+        <v>0.000326775680520432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.11290255162127</v>
+        <v>0.7161673333333334</v>
       </c>
       <c r="H4">
-        <v>4.11290255162127</v>
+        <v>2.148502</v>
       </c>
       <c r="I4">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="J4">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.8560354469487</v>
+        <v>16.150626</v>
       </c>
       <c r="N4">
-        <v>14.8560354469487</v>
+        <v>48.451878</v>
       </c>
       <c r="O4">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="P4">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="Q4">
-        <v>61.10142609673134</v>
+        <v>11.566550754084</v>
       </c>
       <c r="R4">
-        <v>61.10142609673134</v>
+        <v>104.098956786756</v>
       </c>
       <c r="S4">
-        <v>0.003150338076162729</v>
+        <v>0.0005444851167104471</v>
       </c>
       <c r="T4">
-        <v>0.003150338076162729</v>
+        <v>0.0005444851167104472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.11290255162127</v>
+        <v>0.7161673333333334</v>
       </c>
       <c r="H5">
-        <v>4.11290255162127</v>
+        <v>2.148502</v>
       </c>
       <c r="I5">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="J5">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.5101658865782</v>
+        <v>13.584346</v>
       </c>
       <c r="N5">
-        <v>13.5101658865782</v>
+        <v>40.753038</v>
       </c>
       <c r="O5">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="P5">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="Q5">
-        <v>55.56599574773411</v>
+        <v>9.728664849897335</v>
       </c>
       <c r="R5">
-        <v>55.56599574773411</v>
+        <v>87.55798364907601</v>
       </c>
       <c r="S5">
-        <v>0.002864935948742898</v>
+        <v>0.000457968268056303</v>
       </c>
       <c r="T5">
-        <v>0.002864935948742898</v>
+        <v>0.000457968268056303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.11290255162127</v>
+        <v>0.7161673333333334</v>
       </c>
       <c r="H6">
-        <v>4.11290255162127</v>
+        <v>2.148502</v>
       </c>
       <c r="I6">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="J6">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.3202834862629</v>
+        <v>59.87601466666666</v>
       </c>
       <c r="N6">
-        <v>59.3202834862629</v>
+        <v>179.628044</v>
       </c>
       <c r="O6">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="P6">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="Q6">
-        <v>243.9785453135478</v>
+        <v>42.88124575445422</v>
       </c>
       <c r="R6">
-        <v>243.9785453135478</v>
+        <v>385.931211790088</v>
       </c>
       <c r="S6">
-        <v>0.01257932834253734</v>
+        <v>0.002018596606344326</v>
       </c>
       <c r="T6">
-        <v>0.01257932834253734</v>
+        <v>0.002018596606344326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.11290255162127</v>
+        <v>0.7161673333333334</v>
       </c>
       <c r="H7">
-        <v>4.11290255162127</v>
+        <v>2.148502</v>
       </c>
       <c r="I7">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="J7">
-        <v>0.02473422569113695</v>
+        <v>0.004019289977344153</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.1347465119382</v>
+        <v>16.18664466666667</v>
       </c>
       <c r="N7">
-        <v>16.1347465119382</v>
+        <v>48.559934</v>
       </c>
       <c r="O7">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="P7">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="Q7">
-        <v>66.36064009871301</v>
+        <v>11.59234614654089</v>
       </c>
       <c r="R7">
-        <v>66.36064009871301</v>
+        <v>104.331115318868</v>
       </c>
       <c r="S7">
-        <v>0.003421498721331653</v>
+        <v>0.0005456994119287102</v>
       </c>
       <c r="T7">
-        <v>0.003421498721331653</v>
+        <v>0.0005456994119287102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.2435523773841</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H8">
-        <v>42.2435523773841</v>
+        <v>12.745529</v>
       </c>
       <c r="I8">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551148</v>
       </c>
       <c r="J8">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.29983895179291</v>
+        <v>3.730463333333333</v>
       </c>
       <c r="N8">
-        <v>3.29983895179291</v>
+        <v>11.19139</v>
       </c>
       <c r="O8">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="P8">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="Q8">
-        <v>139.396919596996</v>
+        <v>15.84890953281222</v>
       </c>
       <c r="R8">
-        <v>139.396919596996</v>
+        <v>142.64018579531</v>
       </c>
       <c r="S8">
-        <v>0.007187187788562984</v>
+        <v>0.0007460733575789321</v>
       </c>
       <c r="T8">
-        <v>0.007187187788562984</v>
+        <v>0.0007460733575789322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.2435523773841</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H9">
-        <v>42.2435523773841</v>
+        <v>12.745529</v>
       </c>
       <c r="I9">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551148</v>
       </c>
       <c r="J9">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.518009312639601</v>
+        <v>9.692885333333335</v>
       </c>
       <c r="N9">
-        <v>9.518009312639601</v>
+        <v>29.078656</v>
       </c>
       <c r="O9">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="P9">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="Q9">
-        <v>402.0745249269206</v>
+        <v>41.18031703655822</v>
       </c>
       <c r="R9">
-        <v>402.0745249269206</v>
+        <v>370.622853329024</v>
       </c>
       <c r="S9">
-        <v>0.02073062391910489</v>
+        <v>0.001938526895747781</v>
       </c>
       <c r="T9">
-        <v>0.02073062391910489</v>
+        <v>0.001938526895747782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.2435523773841</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H10">
-        <v>42.2435523773841</v>
+        <v>12.745529</v>
       </c>
       <c r="I10">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551148</v>
       </c>
       <c r="J10">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.8560354469487</v>
+        <v>16.150626</v>
       </c>
       <c r="N10">
-        <v>14.8560354469487</v>
+        <v>48.451878</v>
       </c>
       <c r="O10">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="P10">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="Q10">
-        <v>627.5717115234522</v>
+        <v>68.61609068371799</v>
       </c>
       <c r="R10">
-        <v>627.5717115234522</v>
+        <v>617.544816153462</v>
       </c>
       <c r="S10">
-        <v>0.03235706896930689</v>
+        <v>0.003230041603452725</v>
       </c>
       <c r="T10">
-        <v>0.03235706896930689</v>
+        <v>0.003230041603452726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.2435523773841</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H11">
-        <v>42.2435523773841</v>
+        <v>12.745529</v>
       </c>
       <c r="I11">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551148</v>
       </c>
       <c r="J11">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551149</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.5101658865782</v>
+        <v>13.584346</v>
       </c>
       <c r="N11">
-        <v>13.5101658865782</v>
+        <v>40.753038</v>
       </c>
       <c r="O11">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="P11">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="Q11">
-        <v>570.717400256814</v>
+        <v>57.71322529634467</v>
       </c>
       <c r="R11">
-        <v>570.717400256814</v>
+        <v>519.419027667102</v>
       </c>
       <c r="S11">
-        <v>0.02942570855729713</v>
+        <v>0.00271679888666214</v>
       </c>
       <c r="T11">
-        <v>0.02942570855729713</v>
+        <v>0.002716798886662141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.2435523773841</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H12">
-        <v>42.2435523773841</v>
+        <v>12.745529</v>
       </c>
       <c r="I12">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551148</v>
       </c>
       <c r="J12">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551149</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.3202834862629</v>
+        <v>59.87601466666666</v>
       </c>
       <c r="N12">
-        <v>59.3202834862629</v>
+        <v>179.628044</v>
       </c>
       <c r="O12">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="P12">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="Q12">
-        <v>2505.89950249322</v>
+        <v>254.3838271128084</v>
       </c>
       <c r="R12">
-        <v>2505.89950249322</v>
+        <v>2289.454444015276</v>
       </c>
       <c r="S12">
-        <v>0.1292020681357542</v>
+        <v>0.01197489301171849</v>
       </c>
       <c r="T12">
-        <v>0.1292020681357542</v>
+        <v>0.01197489301171849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.2435523773841</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H13">
-        <v>42.2435523773841</v>
+        <v>12.745529</v>
       </c>
       <c r="I13">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551148</v>
       </c>
       <c r="J13">
-        <v>0.2540448127285943</v>
+        <v>0.02384357890551149</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.1347465119382</v>
+        <v>16.18664466666667</v>
       </c>
       <c r="N13">
-        <v>16.1347465119382</v>
+        <v>48.559934</v>
       </c>
       <c r="O13">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="P13">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="Q13">
-        <v>681.5890093728767</v>
+        <v>68.76911633723176</v>
       </c>
       <c r="R13">
-        <v>681.5890093728767</v>
+        <v>618.9220470350859</v>
       </c>
       <c r="S13">
-        <v>0.03514215535856825</v>
+        <v>0.003237245150351417</v>
       </c>
       <c r="T13">
-        <v>0.03514215535856825</v>
+        <v>0.003237245150351417</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.8952252718923</v>
+        <v>48.817505</v>
       </c>
       <c r="H14">
-        <v>86.8952252718923</v>
+        <v>146.452515</v>
       </c>
       <c r="I14">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="J14">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.29983895179291</v>
+        <v>3.730463333333333</v>
       </c>
       <c r="N14">
-        <v>3.29983895179291</v>
+        <v>11.19139</v>
       </c>
       <c r="O14">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="P14">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="Q14">
-        <v>286.7402490770099</v>
+        <v>182.1119124273167</v>
       </c>
       <c r="R14">
-        <v>286.7402490770099</v>
+        <v>1639.00721184585</v>
       </c>
       <c r="S14">
-        <v>0.01478408577903901</v>
+        <v>0.008572756736258569</v>
       </c>
       <c r="T14">
-        <v>0.01478408577903901</v>
+        <v>0.008572756736258569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.8952252718923</v>
+        <v>48.817505</v>
       </c>
       <c r="H15">
-        <v>86.8952252718923</v>
+        <v>146.452515</v>
       </c>
       <c r="I15">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="J15">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.518009312639601</v>
+        <v>9.692885333333335</v>
       </c>
       <c r="N15">
-        <v>9.518009312639601</v>
+        <v>29.078656</v>
       </c>
       <c r="O15">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="P15">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="Q15">
-        <v>827.0695633617869</v>
+        <v>473.1824782244267</v>
       </c>
       <c r="R15">
-        <v>827.0695633617869</v>
+        <v>4258.642304019841</v>
       </c>
       <c r="S15">
-        <v>0.04264301021336236</v>
+        <v>0.02227464542879353</v>
       </c>
       <c r="T15">
-        <v>0.04264301021336236</v>
+        <v>0.02227464542879353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.8952252718923</v>
+        <v>48.817505</v>
       </c>
       <c r="H16">
-        <v>86.8952252718923</v>
+        <v>146.452515</v>
       </c>
       <c r="I16">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="J16">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.8560354469487</v>
+        <v>16.150626</v>
       </c>
       <c r="N16">
-        <v>14.8560354469487</v>
+        <v>48.451878</v>
       </c>
       <c r="O16">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="P16">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="Q16">
-        <v>1290.918546809825</v>
+        <v>788.43326550813</v>
       </c>
       <c r="R16">
-        <v>1290.918546809825</v>
+        <v>7095.89938957317</v>
       </c>
       <c r="S16">
-        <v>0.06655867319367209</v>
+        <v>0.03711479659889239</v>
       </c>
       <c r="T16">
-        <v>0.06655867319367209</v>
+        <v>0.0371147965988924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>86.8952252718923</v>
+        <v>48.817505</v>
       </c>
       <c r="H17">
-        <v>86.8952252718923</v>
+        <v>146.452515</v>
       </c>
       <c r="I17">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="J17">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.5101658865782</v>
+        <v>13.584346</v>
       </c>
       <c r="N17">
-        <v>13.5101658865782</v>
+        <v>40.753038</v>
       </c>
       <c r="O17">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="P17">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="Q17">
-        <v>1173.968908174847</v>
+        <v>663.1538787767302</v>
       </c>
       <c r="R17">
-        <v>1173.968908174847</v>
+        <v>5968.384908990571</v>
       </c>
       <c r="S17">
-        <v>0.06052884830870185</v>
+        <v>0.03121738059682501</v>
       </c>
       <c r="T17">
-        <v>0.06052884830870185</v>
+        <v>0.03121738059682501</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>86.8952252718923</v>
+        <v>48.817505</v>
       </c>
       <c r="H18">
-        <v>86.8952252718923</v>
+        <v>146.452515</v>
       </c>
       <c r="I18">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="J18">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>59.3202834862629</v>
+        <v>59.87601466666666</v>
       </c>
       <c r="N18">
-        <v>59.3202834862629</v>
+        <v>179.628044</v>
       </c>
       <c r="O18">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="P18">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="Q18">
-        <v>5154.649396731327</v>
+        <v>2922.997645370073</v>
       </c>
       <c r="R18">
-        <v>5154.649396731327</v>
+        <v>26306.97880833066</v>
       </c>
       <c r="S18">
-        <v>0.2657693821758548</v>
+        <v>0.1375975213286241</v>
       </c>
       <c r="T18">
-        <v>0.2657693821758548</v>
+        <v>0.1375975213286241</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>86.8952252718923</v>
+        <v>48.817505</v>
       </c>
       <c r="H19">
-        <v>86.8952252718923</v>
+        <v>146.452515</v>
       </c>
       <c r="I19">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="J19">
-        <v>0.5225716112602623</v>
+        <v>0.2739746696518524</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.1347465119382</v>
+        <v>16.18664466666667</v>
       </c>
       <c r="N19">
-        <v>16.1347465119382</v>
+        <v>48.559934</v>
       </c>
       <c r="O19">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="P19">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="Q19">
-        <v>1402.032432859748</v>
+        <v>790.1916069482234</v>
       </c>
       <c r="R19">
-        <v>1402.032432859748</v>
+        <v>7111.72446253401</v>
       </c>
       <c r="S19">
-        <v>0.07228761158963216</v>
+        <v>0.03719756896245877</v>
       </c>
       <c r="T19">
-        <v>0.07228761158963216</v>
+        <v>0.03719756896245877</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.2923535801203</v>
+        <v>89.52547966666667</v>
       </c>
       <c r="H20">
-        <v>32.2923535801203</v>
+        <v>268.576439</v>
       </c>
       <c r="I20">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="J20">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.29983895179291</v>
+        <v>3.730463333333333</v>
       </c>
       <c r="N20">
-        <v>3.29983895179291</v>
+        <v>11.19139</v>
       </c>
       <c r="O20">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="P20">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="Q20">
-        <v>106.5595661887502</v>
+        <v>333.9715192955788</v>
       </c>
       <c r="R20">
-        <v>106.5595661887502</v>
+        <v>3005.743673660209</v>
       </c>
       <c r="S20">
-        <v>0.005494121499101323</v>
+        <v>0.01572141302344715</v>
       </c>
       <c r="T20">
-        <v>0.005494121499101323</v>
+        <v>0.01572141302344715</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.2923535801203</v>
+        <v>89.52547966666667</v>
       </c>
       <c r="H21">
-        <v>32.2923535801203</v>
+        <v>268.576439</v>
       </c>
       <c r="I21">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="J21">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.518009312639601</v>
+        <v>9.692885333333335</v>
       </c>
       <c r="N21">
-        <v>9.518009312639601</v>
+        <v>29.078656</v>
       </c>
       <c r="O21">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="P21">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="Q21">
-        <v>307.3589221026357</v>
+        <v>867.7602088206651</v>
       </c>
       <c r="R21">
-        <v>307.3589221026357</v>
+        <v>7809.841879385985</v>
       </c>
       <c r="S21">
-        <v>0.0158471671972983</v>
+        <v>0.04084904208885041</v>
       </c>
       <c r="T21">
-        <v>0.0158471671972983</v>
+        <v>0.04084904208885041</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.2923535801203</v>
+        <v>89.52547966666667</v>
       </c>
       <c r="H22">
-        <v>32.2923535801203</v>
+        <v>268.576439</v>
       </c>
       <c r="I22">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="J22">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.8560354469487</v>
+        <v>16.150626</v>
       </c>
       <c r="N22">
-        <v>14.8560354469487</v>
+        <v>48.451878</v>
       </c>
       <c r="O22">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="P22">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="Q22">
-        <v>479.7363494516679</v>
+        <v>1445.892539566938</v>
       </c>
       <c r="R22">
-        <v>479.7363494516679</v>
+        <v>13013.03285610244</v>
       </c>
       <c r="S22">
-        <v>0.0247348021927388</v>
+        <v>0.06806410872998547</v>
       </c>
       <c r="T22">
-        <v>0.0247348021927388</v>
+        <v>0.06806410872998549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.2923535801203</v>
+        <v>89.52547966666667</v>
       </c>
       <c r="H23">
-        <v>32.2923535801203</v>
+        <v>268.576439</v>
       </c>
       <c r="I23">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="J23">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.5101658865782</v>
+        <v>13.584346</v>
       </c>
       <c r="N23">
-        <v>13.5101658865782</v>
+        <v>40.753038</v>
       </c>
       <c r="O23">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="P23">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="Q23">
-        <v>436.2750537354627</v>
+        <v>1216.145091607965</v>
       </c>
       <c r="R23">
-        <v>436.2750537354627</v>
+        <v>10945.30582447168</v>
       </c>
       <c r="S23">
-        <v>0.02249397438427863</v>
+        <v>0.05724895141338444</v>
       </c>
       <c r="T23">
-        <v>0.02249397438427863</v>
+        <v>0.05724895141338444</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.2923535801203</v>
+        <v>89.52547966666667</v>
       </c>
       <c r="H24">
-        <v>32.2923535801203</v>
+        <v>268.576439</v>
       </c>
       <c r="I24">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="J24">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.3202834862629</v>
+        <v>59.87601466666666</v>
       </c>
       <c r="N24">
-        <v>59.3202834862629</v>
+        <v>179.628044</v>
       </c>
       <c r="O24">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="P24">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="Q24">
-        <v>1915.591568811373</v>
+        <v>5360.428933561701</v>
       </c>
       <c r="R24">
-        <v>1915.591568811373</v>
+        <v>48243.86040205531</v>
       </c>
       <c r="S24">
-        <v>0.09876628817221007</v>
+        <v>0.2523374371117383</v>
       </c>
       <c r="T24">
-        <v>0.09876628817221007</v>
+        <v>0.2523374371117383</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.2923535801203</v>
+        <v>89.52547966666667</v>
       </c>
       <c r="H25">
-        <v>32.2923535801203</v>
+        <v>268.576439</v>
       </c>
       <c r="I25">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="J25">
-        <v>0.1942001667979804</v>
+        <v>0.5024368557364541</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.1347465119382</v>
+        <v>16.18664466666667</v>
       </c>
       <c r="N25">
-        <v>16.1347465119382</v>
+        <v>48.559934</v>
       </c>
       <c r="O25">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="P25">
-        <v>0.1383305369675544</v>
+        <v>0.135770102432195</v>
       </c>
       <c r="Q25">
-        <v>521.028939289121</v>
+        <v>1449.117127977225</v>
       </c>
       <c r="R25">
-        <v>521.028939289121</v>
+        <v>13042.05415179503</v>
       </c>
       <c r="S25">
-        <v>0.02686381335235325</v>
+        <v>0.06821590336904833</v>
       </c>
       <c r="T25">
-        <v>0.02686381335235325</v>
+        <v>0.06821590336904833</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.739827415213105</v>
+        <v>33.901809</v>
       </c>
       <c r="H26">
-        <v>0.739827415213105</v>
+        <v>101.705427</v>
       </c>
       <c r="I26">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="J26">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.29983895179291</v>
+        <v>3.730463333333333</v>
       </c>
       <c r="N26">
-        <v>3.29983895179291</v>
+        <v>11.19139</v>
       </c>
       <c r="O26">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="P26">
-        <v>0.02829102358504493</v>
+        <v>0.03129032602595058</v>
       </c>
       <c r="Q26">
-        <v>2.44131132232447</v>
+        <v>126.46945540817</v>
       </c>
       <c r="R26">
-        <v>2.44131132232447</v>
+        <v>1138.22509867353</v>
       </c>
       <c r="S26">
-        <v>0.0001258719559558266</v>
+        <v>0.005953437429383197</v>
       </c>
       <c r="T26">
-        <v>0.0001258719559558266</v>
+        <v>0.005953437429383197</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.739827415213105</v>
+        <v>33.901809</v>
       </c>
       <c r="H27">
-        <v>0.739827415213105</v>
+        <v>101.705427</v>
       </c>
       <c r="I27">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="J27">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.518009312639601</v>
+        <v>9.692885333333335</v>
       </c>
       <c r="N27">
-        <v>9.518009312639601</v>
+        <v>29.078656</v>
       </c>
       <c r="O27">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="P27">
-        <v>0.08160223267873687</v>
+        <v>0.08130184245535756</v>
       </c>
       <c r="Q27">
-        <v>7.041684227744418</v>
+        <v>328.606347229568</v>
       </c>
       <c r="R27">
-        <v>7.041684227744418</v>
+        <v>2957.457125066112</v>
       </c>
       <c r="S27">
-        <v>0.0003630633089947554</v>
+        <v>0.01546885230758273</v>
       </c>
       <c r="T27">
-        <v>0.0003630633089947554</v>
+        <v>0.01546885230758273</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.739827415213105</v>
+        <v>33.901809</v>
       </c>
       <c r="H28">
-        <v>0.739827415213105</v>
+        <v>101.705427</v>
       </c>
       <c r="I28">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="J28">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.8560354469487</v>
+        <v>16.150626</v>
       </c>
       <c r="N28">
-        <v>14.8560354469487</v>
+        <v>48.451878</v>
       </c>
       <c r="O28">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="P28">
-        <v>0.1273675640993118</v>
+        <v>0.1354679855844164</v>
       </c>
       <c r="Q28">
-        <v>10.99090230503032</v>
+        <v>547.5354378824339</v>
       </c>
       <c r="R28">
-        <v>10.99090230503032</v>
+        <v>4927.818940941906</v>
       </c>
       <c r="S28">
-        <v>0.0005666816674312291</v>
+        <v>0.02577474505035641</v>
       </c>
       <c r="T28">
-        <v>0.0005666816674312291</v>
+        <v>0.02577474505035642</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.739827415213105</v>
+        <v>33.901809</v>
       </c>
       <c r="H29">
-        <v>0.739827415213105</v>
+        <v>101.705427</v>
       </c>
       <c r="I29">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="J29">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.5101658865782</v>
+        <v>13.584346</v>
       </c>
       <c r="N29">
-        <v>13.5101658865782</v>
+        <v>40.753038</v>
       </c>
       <c r="O29">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="P29">
-        <v>0.115828810835566</v>
+        <v>0.1139425795694684</v>
       </c>
       <c r="Q29">
-        <v>9.995191106967416</v>
+        <v>460.5339034819141</v>
       </c>
       <c r="R29">
-        <v>9.995191106967416</v>
+        <v>4144.805131337226</v>
       </c>
       <c r="S29">
-        <v>0.0005153436365454493</v>
+        <v>0.02167922499263056</v>
       </c>
       <c r="T29">
-        <v>0.0005153436365454493</v>
+        <v>0.02167922499263056</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.739827415213105</v>
+        <v>33.901809</v>
       </c>
       <c r="H30">
-        <v>0.739827415213105</v>
+        <v>101.705427</v>
       </c>
       <c r="I30">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="J30">
-        <v>0.004449183522025849</v>
+        <v>0.1902644742162713</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>59.3202834862629</v>
+        <v>59.87601466666666</v>
       </c>
       <c r="N30">
-        <v>59.3202834862629</v>
+        <v>179.628044</v>
       </c>
       <c r="O30">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="P30">
-        <v>0.5085798318337861</v>
+        <v>0.502227163932612</v>
       </c>
       <c r="Q30">
-        <v>43.88677200135052</v>
+        <v>2029.905212910532</v>
       </c>
       <c r="R30">
-        <v>43.88677200135052</v>
+        <v>18269.14691619479</v>
       </c>
       <c r="S30">
-        <v>0.002262765007429559</v>
+        <v>0.09555598728276753</v>
       </c>
       <c r="T30">
-        <v>0.002262765007429559</v>
+        <v>0.09555598728276753</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>33.901809</v>
+      </c>
+      <c r="H31">
+        <v>101.705427</v>
+      </c>
+      <c r="I31">
+        <v>0.1902644742162713</v>
+      </c>
+      <c r="J31">
+        <v>0.1902644742162713</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.18664466666667</v>
+      </c>
+      <c r="N31">
+        <v>48.559934</v>
+      </c>
+      <c r="O31">
+        <v>0.135770102432195</v>
+      </c>
+      <c r="P31">
+        <v>0.135770102432195</v>
+      </c>
+      <c r="Q31">
+        <v>548.756535840202</v>
+      </c>
+      <c r="R31">
+        <v>4938.808822561818</v>
+      </c>
+      <c r="S31">
+        <v>0.02583222715355087</v>
+      </c>
+      <c r="T31">
+        <v>0.02583222715355087</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.9730783333333334</v>
+      </c>
+      <c r="H32">
+        <v>2.919235</v>
+      </c>
+      <c r="I32">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="J32">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.730463333333333</v>
+      </c>
+      <c r="N32">
+        <v>11.19139</v>
+      </c>
+      <c r="O32">
+        <v>0.03129032602595058</v>
+      </c>
+      <c r="P32">
+        <v>0.03129032602595058</v>
+      </c>
+      <c r="Q32">
+        <v>3.630033042961111</v>
+      </c>
+      <c r="R32">
+        <v>32.67029738665</v>
+      </c>
+      <c r="S32">
+        <v>0.0001708805854988</v>
+      </c>
+      <c r="T32">
+        <v>0.0001708805854988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.9730783333333334</v>
+      </c>
+      <c r="H33">
+        <v>2.919235</v>
+      </c>
+      <c r="I33">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="J33">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.692885333333335</v>
+      </c>
+      <c r="N33">
+        <v>29.078656</v>
+      </c>
+      <c r="O33">
+        <v>0.08130184245535756</v>
+      </c>
+      <c r="P33">
+        <v>0.08130184245535756</v>
+      </c>
+      <c r="Q33">
+        <v>9.431936705351113</v>
+      </c>
+      <c r="R33">
+        <v>84.88743034816001</v>
+      </c>
+      <c r="S33">
+        <v>0.0004440000538626742</v>
+      </c>
+      <c r="T33">
+        <v>0.0004440000538626742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.9730783333333334</v>
+      </c>
+      <c r="H34">
+        <v>2.919235</v>
+      </c>
+      <c r="I34">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="J34">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>16.150626</v>
+      </c>
+      <c r="N34">
+        <v>48.451878</v>
+      </c>
+      <c r="O34">
+        <v>0.1354679855844164</v>
+      </c>
+      <c r="P34">
+        <v>0.1354679855844164</v>
+      </c>
+      <c r="Q34">
+        <v>15.71582423037</v>
+      </c>
+      <c r="R34">
+        <v>141.44241807333</v>
+      </c>
+      <c r="S34">
+        <v>0.0007398084850189676</v>
+      </c>
+      <c r="T34">
+        <v>0.0007398084850189678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9730783333333334</v>
+      </c>
+      <c r="H35">
+        <v>2.919235</v>
+      </c>
+      <c r="I35">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="J35">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>13.584346</v>
+      </c>
+      <c r="N35">
+        <v>40.753038</v>
+      </c>
+      <c r="O35">
+        <v>0.1139425795694684</v>
+      </c>
+      <c r="P35">
+        <v>0.1139425795694684</v>
+      </c>
+      <c r="Q35">
+        <v>13.21863276510333</v>
+      </c>
+      <c r="R35">
+        <v>118.96769488593</v>
+      </c>
+      <c r="S35">
+        <v>0.0006222554119099454</v>
+      </c>
+      <c r="T35">
+        <v>0.0006222554119099454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.739827415213105</v>
-      </c>
-      <c r="H31">
-        <v>0.739827415213105</v>
-      </c>
-      <c r="I31">
-        <v>0.004449183522025849</v>
-      </c>
-      <c r="J31">
-        <v>0.004449183522025849</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>16.1347465119382</v>
-      </c>
-      <c r="N31">
-        <v>16.1347465119382</v>
-      </c>
-      <c r="O31">
-        <v>0.1383305369675544</v>
-      </c>
-      <c r="P31">
-        <v>0.1383305369675544</v>
-      </c>
-      <c r="Q31">
-        <v>11.9369278070459</v>
-      </c>
-      <c r="R31">
-        <v>11.9369278070459</v>
-      </c>
-      <c r="S31">
-        <v>0.0006154579456690305</v>
-      </c>
-      <c r="T31">
-        <v>0.0006154579456690305</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9730783333333334</v>
+      </c>
+      <c r="H36">
+        <v>2.919235</v>
+      </c>
+      <c r="I36">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="J36">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>59.87601466666666</v>
+      </c>
+      <c r="N36">
+        <v>179.628044</v>
+      </c>
+      <c r="O36">
+        <v>0.502227163932612</v>
+      </c>
+      <c r="P36">
+        <v>0.502227163932612</v>
+      </c>
+      <c r="Q36">
+        <v>58.26405255848222</v>
+      </c>
+      <c r="R36">
+        <v>524.37647302634</v>
+      </c>
+      <c r="S36">
+        <v>0.002742728591419314</v>
+      </c>
+      <c r="T36">
+        <v>0.002742728591419314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9730783333333334</v>
+      </c>
+      <c r="H37">
+        <v>2.919235</v>
+      </c>
+      <c r="I37">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="J37">
+        <v>0.00546113151256655</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.18664466666667</v>
+      </c>
+      <c r="N37">
+        <v>48.559934</v>
+      </c>
+      <c r="O37">
+        <v>0.135770102432195</v>
+      </c>
+      <c r="P37">
+        <v>0.135770102432195</v>
+      </c>
+      <c r="Q37">
+        <v>15.75087321449889</v>
+      </c>
+      <c r="R37">
+        <v>141.75785893049</v>
+      </c>
+      <c r="S37">
+        <v>0.0007414583848568483</v>
+      </c>
+      <c r="T37">
+        <v>0.0007414583848568483</v>
       </c>
     </row>
   </sheetData>
